--- a/data/tumor-size/mimic_injection_dates.xlsx
+++ b/data/tumor-size/mimic_injection_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wil407\Box Sync\mimic\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spak01\Documents\GitHub\mimic\data\tumor-size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A2B34-EEA9-45B0-AA51-20AD4F6109A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644F42D7-933A-4371-92FA-829496ED1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2017E024-7739-461E-9A80-346E3AD88C79}"/>
+    <workbookView xWindow="52380" yWindow="1530" windowWidth="19275" windowHeight="12870" xr2:uid="{2017E024-7739-461E-9A80-346E3AD88C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mimic Number</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>mimic-08</t>
+  </si>
+  <si>
+    <t>mimic16</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F9D3B-7D1E-4363-8C38-6686DCAD1FEF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -461,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -469,7 +473,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +481,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -485,7 +489,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,7 +497,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,7 +505,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -509,7 +513,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -517,12 +521,20 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>44616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44958</v>
       </c>
     </row>
   </sheetData>
